--- a/Income/NEM_inc.xlsx
+++ b/Income/NEM_inc.xlsx
@@ -2243,16 +2243,16 @@
         <v>0.3108</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2886</v>
+        <v>0.3611</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3134</v>
+        <v>0.3887</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.3364</v>
+        <v>0.4122</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.3847</v>
+        <v>0.4666</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4513</v>
@@ -2370,16 +2370,16 @@
         <v>0.2458</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.2184</v>
+        <v>0.2183</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1759</v>
+        <v>0.1758</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0.1372</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1312</v>
+        <v>0.1311</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1283</v>
@@ -2497,16 +2497,16 @@
         <v>0.2753</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.2569</v>
+        <v>0.2568</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.4458</v>
+        <v>0.4456</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.3983</v>
+        <v>0.3982</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.3793</v>
+        <v>0.3792</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.3799</v>
@@ -2627,13 +2627,13 @@
         <v>0.2333</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.3687</v>
+        <v>0.3685</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.336</v>
+        <v>0.3358</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2881</v>
+        <v>0.288</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.2542</v>
@@ -2751,16 +2751,16 @@
         <v>0.3136</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.2785</v>
+        <v>0.2784</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.2009</v>
+        <v>0.2008</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>0.158</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.1441</v>
+        <v>0.144</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0.1246</v>
@@ -4178,16 +4178,16 @@
         <v>0.4859</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.4527</v>
+        <v>0.4387</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.4152</v>
+        <v>0.4007</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.3698</v>
+        <v>0.3553</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.3481</v>
+        <v>0.3323</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.3191</v>
@@ -4305,16 +4305,16 @@
         <v>0.4276</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.3996</v>
+        <v>0.3994</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.3391</v>
+        <v>0.339</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.3066</v>
+        <v>0.3065</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.2944</v>
+        <v>0.2943</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0.2722</v>
